--- a/VT_REG1_PRI_V12.xlsx
+++ b/VT_REG1_PRI_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitracin-my.sharepoint.com/personal/sandeep_k_ms_iitr_ac_in/Documents/Documents/GitHub/Demo_S012_Vonline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD12B5F-E7EE-4A71-9B9C-666A4012B1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FAD12B5F-E7EE-4A71-9B9C-666A4012B1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF8FC2C-D5EA-47ED-B20E-4A1CBC1D4288}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -7058,9 +7058,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="General_)"/>
-    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -7590,10 +7590,10 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -7685,7 +7685,7 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="17" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="6" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7728,11 +7728,11 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -7754,17 +7754,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7795,24 +7795,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10516,7 +10516,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -10651,7 +10651,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="EnergyBalance"/>
@@ -13221,8 +13221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:F17"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13351,8 +13351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F65536"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13663,8 +13663,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="54">
-        <f>'EB1'!$D$5*'EB1'!D21</f>
-        <v>3947.949525</v>
+        <v>8000</v>
       </c>
       <c r="I11" s="111" t="str">
         <f>'EB1'!$B$5</f>
